--- a/data/trial.xlsx
+++ b/data/trial.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/larsb_usn_no/Documents/R projects/SOBRU/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/larsb_usn_no/Documents/R projects/sobru_nettside/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{7A4A237A-AAE7-4D33-B8B9-ECA43E9D8745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEEC435C-46F7-4FD5-8C35-4C7E58D04F06}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{7A4A237A-AAE7-4D33-B8B9-ECA43E9D8745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A0E3F67-E5F7-4AAD-830A-FAE436BB28C0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8A6F90A-FAAA-4C60-B67A-3E118FC87167}"/>
   </bookViews>
@@ -1095,11 +1095,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBBD9B1-DCB0-40E5-848C-3943DE419711}">
   <dimension ref="A1:BF67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="S77" sqref="S77"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="39" max="39" width="20.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
